--- a/data/hotels_by_city/Dallas/Dallas_shard_592.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_592.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,555 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r529206256-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>56260</t>
+  </si>
+  <si>
+    <t>244378</t>
+  </si>
+  <si>
+    <t>529206256</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Horrible!</t>
+  </si>
+  <si>
+    <t>We stayed here August 22, 2017, we were traveling to Lackland, AFB.  We had 2 rooms for my family and my sister's family. The hallway smelled like marijuana. The rooms were disgusting, there was fecal matter on our bathtub. There were pubic hairs on our sheets. My sister's room had blood on the wall and ceiling of the bathroom, and a large blood stain on the bed, which was not even made up correctly.  When we went to speak to the manager about the condition of our rooms, he said that we did this to the rooms, even though we had only been checked in for about 15 minutes. In the morning my husband tried to speak to the manager and showed them pictures of the rooms and the blood stains, he said it was hair dye and that we did it. (none of us even have red hair). This hotel is unsanitary, and the people running it are rude. I will never stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We stayed here August 22, 2017, we were traveling to Lackland, AFB.  We had 2 rooms for my family and my sister's family. The hallway smelled like marijuana. The rooms were disgusting, there was fecal matter on our bathtub. There were pubic hairs on our sheets. My sister's room had blood on the wall and ceiling of the bathroom, and a large blood stain on the bed, which was not even made up correctly.  When we went to speak to the manager about the condition of our rooms, he said that we did this to the rooms, even though we had only been checked in for about 15 minutes. In the morning my husband tried to speak to the manager and showed them pictures of the rooms and the blood stains, he said it was hair dye and that we did it. (none of us even have red hair). This hotel is unsanitary, and the people running it are rude. I will never stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r527947625-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>527947625</t>
+  </si>
+  <si>
+    <t>09/27/2017</t>
+  </si>
+  <si>
+    <t>Unsafe and unclean.</t>
+  </si>
+  <si>
+    <t>Stayed in this motel the Sunday before Labor Day because the grandkids were tired and cranky and I thought staying and getting up for breakfast would be nice before the rest of the trip home. Big mistake. Check in was easy and headed for our room. When the elevator door opened, on the second floor, we were overwhelmed by the odor of Indian food and marijuana. There were boxes of leftover food in boxes littered around the elevator door and in the hall to our room.  Once inside the room, I noticed the light didn't work in the bathroom but could see there were no towels or washcloths. I tried to call for towels but the phone was dead in the room, as were most of the other lights and the minifridge. I went downstairs and complained about the room but the clerk acted like she couldn't understand me, the same clerk that had checked me in. She did give me two towels for the four of us. The thin coverlets on the beds were unclean or stained and there was a public hair between the sheets so we slept on the top of the bed. I did call Motel 6, that same day, and reported this motel. I was surprised that, within a week, I received a check for the total amount I'd paid for the room. This could be a good, low priced establishment with a good cleaning...Stayed in this motel the Sunday before Labor Day because the grandkids were tired and cranky and I thought staying and getting up for breakfast would be nice before the rest of the trip home. Big mistake. Check in was easy and headed for our room. When the elevator door opened, on the second floor, we were overwhelmed by the odor of Indian food and marijuana. There were boxes of leftover food in boxes littered around the elevator door and in the hall to our room.  Once inside the room, I noticed the light didn't work in the bathroom but could see there were no towels or washcloths. I tried to call for towels but the phone was dead in the room, as were most of the other lights and the minifridge. I went downstairs and complained about the room but the clerk acted like she couldn't understand me, the same clerk that had checked me in. She did give me two towels for the four of us. The thin coverlets on the beds were unclean or stained and there was a public hair between the sheets so we slept on the top of the bed. I did call Motel 6, that same day, and reported this motel. I was surprised that, within a week, I received a check for the total amount I'd paid for the room. This could be a good, low priced establishment with a good cleaning and maintenance but I would give it a few months before staying there because this was my worst hotel experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 McKinney, responded to this reviewResponded September 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2017</t>
+  </si>
+  <si>
+    <t>Stayed in this motel the Sunday before Labor Day because the grandkids were tired and cranky and I thought staying and getting up for breakfast would be nice before the rest of the trip home. Big mistake. Check in was easy and headed for our room. When the elevator door opened, on the second floor, we were overwhelmed by the odor of Indian food and marijuana. There were boxes of leftover food in boxes littered around the elevator door and in the hall to our room.  Once inside the room, I noticed the light didn't work in the bathroom but could see there were no towels or washcloths. I tried to call for towels but the phone was dead in the room, as were most of the other lights and the minifridge. I went downstairs and complained about the room but the clerk acted like she couldn't understand me, the same clerk that had checked me in. She did give me two towels for the four of us. The thin coverlets on the beds were unclean or stained and there was a public hair between the sheets so we slept on the top of the bed. I did call Motel 6, that same day, and reported this motel. I was surprised that, within a week, I received a check for the total amount I'd paid for the room. This could be a good, low priced establishment with a good cleaning...Stayed in this motel the Sunday before Labor Day because the grandkids were tired and cranky and I thought staying and getting up for breakfast would be nice before the rest of the trip home. Big mistake. Check in was easy and headed for our room. When the elevator door opened, on the second floor, we were overwhelmed by the odor of Indian food and marijuana. There were boxes of leftover food in boxes littered around the elevator door and in the hall to our room.  Once inside the room, I noticed the light didn't work in the bathroom but could see there were no towels or washcloths. I tried to call for towels but the phone was dead in the room, as were most of the other lights and the minifridge. I went downstairs and complained about the room but the clerk acted like she couldn't understand me, the same clerk that had checked me in. She did give me two towels for the four of us. The thin coverlets on the beds were unclean or stained and there was a public hair between the sheets so we slept on the top of the bed. I did call Motel 6, that same day, and reported this motel. I was surprised that, within a week, I received a check for the total amount I'd paid for the room. This could be a good, low priced establishment with a good cleaning and maintenance but I would give it a few months before staying there because this was my worst hotel experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r521722375-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>521722375</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>Declining hotel but pet friendly.</t>
+  </si>
+  <si>
+    <t>A cheap place to stay with your pet that's easily accessible on I-75 in McKinney. The hotel is trying to battle bug problems as customers complain about bites. Toiletries are non-existent and hand towels are used instead of wash clothes. Ideal for construction workers that just needs a bed, but not family friendly. There's no pool or play area for children.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r473039457-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>473039457</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>Pets are welcome</t>
+  </si>
+  <si>
+    <t>The desk clerk at this Motel 6 was very polite and helpful. The room was clean with a refrigerator. They do not offer a discount for AARP. Dominos will deliver pizza here. Motel 6 motels are minimal hotels that accept pets. One should not expect more. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 McKinney, responded to this reviewResponded June 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2017</t>
+  </si>
+  <si>
+    <t>The desk clerk at this Motel 6 was very polite and helpful. The room was clean with a refrigerator. They do not offer a discount for AARP. Dominos will deliver pizza here. Motel 6 motels are minimal hotels that accept pets. One should not expect more. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r384897738-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>384897738</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>Worst Experience Ever</t>
+  </si>
+  <si>
+    <t>I stayed at this motel, room 105, on June 8th 2016. Shortly after checking in, my toilet flooded the bathroom and some of the carpet. I grabbed the gentleman at the front desk and he started working on it. It broke.  Completely inoperable. I requested a different room and was denied. I requested a refund to take my child to another hotel and was denied. He did not have authority but said to go to the front desk the following morning to talk to the owner. She refused to give me a refund. When I asked for her name, she refused to give me her last name (apparently it’s their policy) but she did give me one thing: an attitude. Worst experience ever.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I stayed at this motel, room 105, on June 8th 2016. Shortly after checking in, my toilet flooded the bathroom and some of the carpet. I grabbed the gentleman at the front desk and he started working on it. It broke.  Completely inoperable. I requested a different room and was denied. I requested a refund to take my child to another hotel and was denied. He did not have authority but said to go to the front desk the following morning to talk to the owner. She refused to give me a refund. When I asked for her name, she refused to give me her last name (apparently it’s their policy) but she did give me one thing: an attitude. Worst experience ever.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r357925990-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>357925990</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Get the best for your money... Then prefer this place for stay. :-)</t>
+  </si>
+  <si>
+    <t>A very friendly welcome on arrival, Although the room was a little small it was well furnished and very clean and WIFI at no extra cost. There was also the added bonus of a coffee machine and kettle for tea in the reception area. Great desk staff who remember you when you come and go. Useful supermarket a few doors away and lots of good places to eat nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>A very friendly welcome on arrival, Although the room was a little small it was well furnished and very clean and WIFI at no extra cost. There was also the added bonus of a coffee machine and kettle for tea in the reception area. Great desk staff who remember you when you come and go. Useful supermarket a few doors away and lots of good places to eat nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r328158464-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>328158464</t>
+  </si>
+  <si>
+    <t>11/21/2015</t>
+  </si>
+  <si>
+    <t>Stay Away From This Place!</t>
+  </si>
+  <si>
+    <t>This place is horrible. The beds are very uncomfortable. The non-smoking rooms still smell like they've been smoked in. They have basically no amenities. You have to bring everything you might possibly need for your trip. No iron or ironing board in the room. No hair dryer. No rollaway beds for your children. You do get two free bars of soap, but if you want shampoo, you have to pay $2 in the vending machine to get a travel sized shampoo. Our first night here, a woman who was hopped up on drugs ran down our hallway screaming at the top of her lungs. The hotel staff couldn't care less about the patrons. They require that you pay for your room when you arrive rather than charging you at check-out and tout that as an "industry standard." I'm sorry, do I look like this is the first hotel I've ever stayed in? I'm quite sure that if there is an "industry standard" in accepting payment, it's that they charge you at check-out. That is one of the reasons they have such poor customer service. They already have their money, why do they care if you have needs. I will NEVER stay at this or ANY Motel 6 again! If you are in the area, stay ANYWHERE BUT HERE. I promise, you'll thank me later!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>This place is horrible. The beds are very uncomfortable. The non-smoking rooms still smell like they've been smoked in. They have basically no amenities. You have to bring everything you might possibly need for your trip. No iron or ironing board in the room. No hair dryer. No rollaway beds for your children. You do get two free bars of soap, but if you want shampoo, you have to pay $2 in the vending machine to get a travel sized shampoo. Our first night here, a woman who was hopped up on drugs ran down our hallway screaming at the top of her lungs. The hotel staff couldn't care less about the patrons. They require that you pay for your room when you arrive rather than charging you at check-out and tout that as an "industry standard." I'm sorry, do I look like this is the first hotel I've ever stayed in? I'm quite sure that if there is an "industry standard" in accepting payment, it's that they charge you at check-out. That is one of the reasons they have such poor customer service. They already have their money, why do they care if you have needs. I will NEVER stay at this or ANY Motel 6 again! If you are in the area, stay ANYWHERE BUT HERE. I promise, you'll thank me later!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r321240856-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>321240856</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t>"Your tvs fine except for the lines running down the screen" from front desk</t>
+  </si>
+  <si>
+    <t>I have stayed here before but this time it's different. I checked in go to my room and turn on tv it has nothing on the screen. I pick up the phone to call front desk. The receiver has no cord attached I hook it up then phone still doesn't work. I walk down 3 floors to front desk to tell them. They change rooms as soon as I turn on tv there is a line running down the middle of the picture.  I go back to desk and get told they are going to be sold out tonight and can't help me. I said can you send maintenance to look at it they said yes I left for 2 hours come back nothing was done. I tell the new front desk clerk about it he looks at me like I'm stupid and says the tv is just fine except for the line. I said the line is not what I paid for and if the tv is not working properly and they can't switch rooms then they should give a discount he said you already got one. I would definetly check my room before paying here. This would of not been so upsetting if it wasn't for the attitude of the staff instead of being apologetic they just blow people off.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>I have stayed here before but this time it's different. I checked in go to my room and turn on tv it has nothing on the screen. I pick up the phone to call front desk. The receiver has no cord attached I hook it up then phone still doesn't work. I walk down 3 floors to front desk to tell them. They change rooms as soon as I turn on tv there is a line running down the middle of the picture.  I go back to desk and get told they are going to be sold out tonight and can't help me. I said can you send maintenance to look at it they said yes I left for 2 hours come back nothing was done. I tell the new front desk clerk about it he looks at me like I'm stupid and says the tv is just fine except for the line. I said the line is not what I paid for and if the tv is not working properly and they can't switch rooms then they should give a discount he said you already got one. I would definetly check my room before paying here. This would of not been so upsetting if it wasn't for the attitude of the staff instead of being apologetic they just blow people off.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r290349229-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>290349229</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the worst I've stayed at! </t>
+  </si>
+  <si>
+    <t>The entire building smelled like cigarette smoke. We walked into the "modern" room and it smelled bad. The toilet had cigarette burns on the toilet and the walls of the bathroom looked like it had dried snot all over the walls. The building is old, the only thing updated was the room and even the bed spread had stains on it. This hotel is not up to motel 6 standards. MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 McKinney, responded to this reviewResponded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2015</t>
+  </si>
+  <si>
+    <t>The entire building smelled like cigarette smoke. We walked into the "modern" room and it smelled bad. The toilet had cigarette burns on the toilet and the walls of the bathroom looked like it had dried snot all over the walls. The building is old, the only thing updated was the room and even the bed spread had stains on it. This hotel is not up to motel 6 standards. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r239109774-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>239109774</t>
+  </si>
+  <si>
+    <t>11/10/2014</t>
+  </si>
+  <si>
+    <t>DISGUSTING &amp; DO NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!!!The pictures will fool you. When we arrived, I had a bad feeling. as we arrived in the room the blankets were disgusting and covered in stains. The toilet, sink &amp; bath tub were clean but the floors were disgusting. The towels were not even white. The fake wood flooring was so gross and filthy. We marched right back downstairs and told them to refund our money and they did and we left to another hotel. the walls are so thin you can hear inappropriate noises. AGAIN DO NOT STAY HERE, IT IS DISGUSTING!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 McKinney, responded to this reviewResponded December 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2014</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!!!The pictures will fool you. When we arrived, I had a bad feeling. as we arrived in the room the blankets were disgusting and covered in stains. The toilet, sink &amp; bath tub were clean but the floors were disgusting. The towels were not even white. The fake wood flooring was so gross and filthy. We marched right back downstairs and told them to refund our money and they did and we left to another hotel. the walls are so thin you can hear inappropriate noises. AGAIN DO NOT STAY HERE, IT IS DISGUSTING!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r237746025-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>237746025</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>Don't be fooled by the exterior and common areas.</t>
+  </si>
+  <si>
+    <t>The outside and common areas were nice and clean. The price was right but the room was disgusting. After a long drive I stopped for a short night of sleep. Seemed nice as I arrived and checked in. When I entered the room the faux wood floors were peeled up and separate all over the room. I thought just unsightly but later I thought what germs were looming in those cracks. Then I looked at the bedspread and it was in horrible condition. Stains all over and holes and snags. I looked it over and decided just stains and it was clean but disgusting.  I took it off the bed and the sheets appeared clean. I was too tired to hunt down another hotel. Things seemed better until I took a towl out to dry off with and it was stained horribly. Definitely an issue with the clothes washing person or equipment. The room was acceptably clean otherwise. Definitely wouldn't stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 McKinney, responded to this reviewResponded November 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2014</t>
+  </si>
+  <si>
+    <t>The outside and common areas were nice and clean. The price was right but the room was disgusting. After a long drive I stopped for a short night of sleep. Seemed nice as I arrived and checked in. When I entered the room the faux wood floors were peeled up and separate all over the room. I thought just unsightly but later I thought what germs were looming in those cracks. Then I looked at the bedspread and it was in horrible condition. Stains all over and holes and snags. I looked it over and decided just stains and it was clean but disgusting.  I took it off the bed and the sheets appeared clean. I was too tired to hunt down another hotel. Things seemed better until I took a towl out to dry off with and it was stained horribly. Definitely an issue with the clothes washing person or equipment. The room was acceptably clean otherwise. Definitely wouldn't stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r232091436-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>232091436</t>
+  </si>
+  <si>
+    <t>10/01/2014</t>
+  </si>
+  <si>
+    <t>1 st stay with motel 6</t>
+  </si>
+  <si>
+    <t>Terrible!The bed was full of stains, etc and hair between the sheets. No toilet paper at all. The manager on duty was helpful, but there was no way that I was going to stay there.I got my money back and went to super 8.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 McKinney, responded to this reviewResponded October 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2014</t>
+  </si>
+  <si>
+    <t>Terrible!The bed was full of stains, etc and hair between the sheets. No toilet paper at all. The manager on duty was helpful, but there was no way that I was going to stay there.I got my money back and went to super 8.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r193116629-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>193116629</t>
+  </si>
+  <si>
+    <t>02/04/2014</t>
+  </si>
+  <si>
+    <t>A nice place to stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stay here 2 nights a week every week for my job. Room is always clean and staff is efficient and friendly. Very convenient to interstate, restaurants. Great value for a good night's rest. As a solo female traveler I always feel safe when staying here. It feels like my 2nd home as much as I stay here. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r190731234-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>190731234</t>
+  </si>
+  <si>
+    <t>01/13/2014</t>
+  </si>
+  <si>
+    <t>Dallas Trip</t>
+  </si>
+  <si>
+    <t>Nice clean affordable rooms. You do have to enter from the inside to your room which can be a hassle when unloading a family. Was pulling a large trailer and they were not able to accommodate our parking needs but it worked out. Clerk was nice and helpful</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r186385271-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>186385271</t>
+  </si>
+  <si>
+    <t>11/30/2013</t>
+  </si>
+  <si>
+    <t>RUDE FROM VERY BEGINNING</t>
+  </si>
+  <si>
+    <t>Ok, I'll give them the fact that the price was reasonable, BUT that does not mean they have the right to be rude!!! Upon check in, I was asked three times if I was the only guest and three times how I was going to pay. I reserved the room with a card online for one person.....so what were the questions for? On top of that, I had decided that I was going to leave a day earlier and I would not need the room the whole weekend. They acted like I killed their dog!!! Then one of them went outside to look at the car I was driving to see who was in there.....REALLY!?!?  The tub backed up, it was like taking a bath standing up! Upon getting sick (unrelated) I decided to check out early and found that they had already charged my card! Usually you are charged AFTER you check out. I will NEVER stay there againMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Ok, I'll give them the fact that the price was reasonable, BUT that does not mean they have the right to be rude!!! Upon check in, I was asked three times if I was the only guest and three times how I was going to pay. I reserved the room with a card online for one person.....so what were the questions for? On top of that, I had decided that I was going to leave a day earlier and I would not need the room the whole weekend. They acted like I killed their dog!!! Then one of them went outside to look at the car I was driving to see who was in there.....REALLY!?!?  The tub backed up, it was like taking a bath standing up! Upon getting sick (unrelated) I decided to check out early and found that they had already charged my card! Usually you are charged AFTER you check out. I will NEVER stay there againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r169727457-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>169727457</t>
+  </si>
+  <si>
+    <t>07/29/2013</t>
+  </si>
+  <si>
+    <t>Good for the price</t>
+  </si>
+  <si>
+    <t>This hotel was very mediocre but the rates were super cheap. My friends and I stayed here with our dogs while we were in town for an agility trial. The rooms were a bit small and outdated but were clean. The staff were friendly and there is grass around the hotel where you can walk your dogs. I felt like it was in a relatively safe area and it was close to everything in McKinney including the nice downtown area and the dog park. I would recommend it if you are on a budget.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r165368099-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>165368099</t>
+  </si>
+  <si>
+    <t>06/26/2013</t>
+  </si>
+  <si>
+    <t>Dope Heaven</t>
+  </si>
+  <si>
+    <t>The lady at the counter was one of the rudest individuals on planet earth.  The reservations could not had been any more mishandle it a monkey had handled them. The next clerk we spoke to could not speak English.  If she was speaking English I could not understand her.   There is a sign in the lobby which reads no pets allowed.  However the same rude lady who was working the counter we checked in was walking her dog in and out of the lobby.  I guess the sign does not apply to her.  Saturday night the local authorities were called and made several arrest.  It seams that almost every one on the second floor felt the need to smoke marijuana. We were there June 21-23 2013  I checked in approx 2:30 PMMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>The lady at the counter was one of the rudest individuals on planet earth.  The reservations could not had been any more mishandle it a monkey had handled them. The next clerk we spoke to could not speak English.  If she was speaking English I could not understand her.   There is a sign in the lobby which reads no pets allowed.  However the same rude lady who was working the counter we checked in was walking her dog in and out of the lobby.  I guess the sign does not apply to her.  Saturday night the local authorities were called and made several arrest.  It seams that almost every one on the second floor felt the need to smoke marijuana. We were there June 21-23 2013  I checked in approx 2:30 PMMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r154848658-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>154848658</t>
+  </si>
+  <si>
+    <t>03/17/2013</t>
+  </si>
+  <si>
+    <t>Happy with the room for the price</t>
+  </si>
+  <si>
+    <t>We checked in about 7pm on a busy Saturday nite.  They were soon to sell out.  In order to get a room on the first floor, I had to take a handicapped room but it was clean and presentable.The room had a nice flat screen TV and a small refrigerator.  It didn't have a microwave.  The only problem we had was that the sheets were really worn, but the mattress was comfortable andeverything was clean.  For the $51 price, I would stay here again.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r133528075-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>133528075</t>
+  </si>
+  <si>
+    <t>07/05/2012</t>
+  </si>
+  <si>
+    <t>THEY STEAL!</t>
+  </si>
+  <si>
+    <t>the housekeepers steal! i have been a long time customer there i never had any complaints that was worth me writing a review until now.  i checked out and remembered not even 10 mins later i left something in the room i called and the lady was like yeah ok you can come back i told her i was at work but i would swing by on my lunch break and come get it.  I leave work a little early to go up there not even 3 hours after i checked out and THEY SAY ITS NOT THERE! bull! the housekeeper had the nerve to yell and get a attitude when asked about it why are you defensive if you didn't steal it? and then to make it even worse they owner had a attitude like it was my fault they hired rouge people to work for them....they have lost a customer!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>the housekeepers steal! i have been a long time customer there i never had any complaints that was worth me writing a review until now.  i checked out and remembered not even 10 mins later i left something in the room i called and the lady was like yeah ok you can come back i told her i was at work but i would swing by on my lunch break and come get it.  I leave work a little early to go up there not even 3 hours after i checked out and THEY SAY ITS NOT THERE! bull! the housekeeper had the nerve to yell and get a attitude when asked about it why are you defensive if you didn't steal it? and then to make it even worse they owner had a attitude like it was my fault they hired rouge people to work for them....they have lost a customer!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r132453948-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>132453948</t>
+  </si>
+  <si>
+    <t>06/21/2012</t>
+  </si>
+  <si>
+    <t>Nice Motel 6, close to everything...</t>
+  </si>
+  <si>
+    <t>Another great find in the Motel 6 family.  The only missing thing was a pool...no swimming pool but other than that the motel was great.  This one has all interior corridors and an elevator for those who need it.  The staff at the desk are awesome!!!!  Super friendly and good with directions.  The rooms are pretty good size and they all come with a refrigerator and free wi fi.  For the price it cannot be beat.  This is a refurbed Motel 6 with the wood floors and the bright orange accent  walls, flat screen tv's....all in all a great little find.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r126777471-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>126777471</t>
+  </si>
+  <si>
+    <t>03/27/2012</t>
+  </si>
+  <si>
+    <t>best motel 6</t>
+  </si>
+  <si>
+    <t>i stayed at this location on in feb. and it was the best stay i have ever had. The beds were great and the wood floors are just beautiful and nice and clean,the front desk clerk are very nice and helpful  i will stay at this location again</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r124175267-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>124175267</t>
+  </si>
+  <si>
+    <t>02/05/2012</t>
+  </si>
+  <si>
+    <t>Bed Comfortable, but Room Not so Clean</t>
+  </si>
+  <si>
+    <t>This is one of Motel 6’s  “Accor” properties and there a 3 floors of rooms, They do have an elevator.  We visited in Feb. 2012.  The outside of the property wasn’t very clean but we considered that is was winter time and may not have been doing regular outside cleaning however the temp was in the 70’s.  Then there was the strong smell of “Curry”.  The Front Office / Common area was clean and decorated with Valentine theme.  
+We travel with 2 little dogs and Motel 6 is usually our option and this was no exception.
+WiFi was free here but I don’t know how well it worked, we were to tired for internet.
+Our bed was very comfortable and that unfortunately is not typical of most Motel 6’s but maybe that is slowly changing.
+We changed rooms because our first room the tub faucet dripped.  I noticed it immediately and called the front desk and a young man came up to check it out.  I told him I was not going to listen to the rest of the night with drip drip.  He change our room.
+The next room wasn’t very clean.  The toilet wasn’t connected to the floor and wiggled and twisted around and was nasty around the base.  I have pics of the bathroom.
+The management has no controll over past Guests that have No Respect for a NON Smoking room.  there were places on the counter...This is one of Motel 6’s  “Accor” properties and there a 3 floors of rooms, They do have an elevator.  We visited in Feb. 2012.  The outside of the property wasn’t very clean but we considered that is was winter time and may not have been doing regular outside cleaning however the temp was in the 70’s.  Then there was the strong smell of “Curry”.  The Front Office / Common area was clean and decorated with Valentine theme.  We travel with 2 little dogs and Motel 6 is usually our option and this was no exception.WiFi was free here but I don’t know how well it worked, we were to tired for internet.Our bed was very comfortable and that unfortunately is not typical of most Motel 6’s but maybe that is slowly changing.We changed rooms because our first room the tub faucet dripped.  I noticed it immediately and called the front desk and a young man came up to check it out.  I told him I was not going to listen to the rest of the night with drip drip.  He change our room.The next room wasn’t very clean.  The toilet wasn’t connected to the floor and wiggled and twisted around and was nasty around the base.  I have pics of the bathroom.The management has no controll over past Guests that have No Respect for a NON Smoking room.  there were places on the counter where  a Smoking Guest had placed thier cig at the edge of the counter top.  this was a personal slam to "Those People" not Motel 6.Sadly this Motel 6 didn’t not use E-address to get a survey from Corp.  I may attempt to contact corp anyhow.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is one of Motel 6’s  “Accor” properties and there a 3 floors of rooms, They do have an elevator.  We visited in Feb. 2012.  The outside of the property wasn’t very clean but we considered that is was winter time and may not have been doing regular outside cleaning however the temp was in the 70’s.  Then there was the strong smell of “Curry”.  The Front Office / Common area was clean and decorated with Valentine theme.  
+We travel with 2 little dogs and Motel 6 is usually our option and this was no exception.
+WiFi was free here but I don’t know how well it worked, we were to tired for internet.
+Our bed was very comfortable and that unfortunately is not typical of most Motel 6’s but maybe that is slowly changing.
+We changed rooms because our first room the tub faucet dripped.  I noticed it immediately and called the front desk and a young man came up to check it out.  I told him I was not going to listen to the rest of the night with drip drip.  He change our room.
+The next room wasn’t very clean.  The toilet wasn’t connected to the floor and wiggled and twisted around and was nasty around the base.  I have pics of the bathroom.
+The management has no controll over past Guests that have No Respect for a NON Smoking room.  there were places on the counter...This is one of Motel 6’s  “Accor” properties and there a 3 floors of rooms, They do have an elevator.  We visited in Feb. 2012.  The outside of the property wasn’t very clean but we considered that is was winter time and may not have been doing regular outside cleaning however the temp was in the 70’s.  Then there was the strong smell of “Curry”.  The Front Office / Common area was clean and decorated with Valentine theme.  We travel with 2 little dogs and Motel 6 is usually our option and this was no exception.WiFi was free here but I don’t know how well it worked, we were to tired for internet.Our bed was very comfortable and that unfortunately is not typical of most Motel 6’s but maybe that is slowly changing.We changed rooms because our first room the tub faucet dripped.  I noticed it immediately and called the front desk and a young man came up to check it out.  I told him I was not going to listen to the rest of the night with drip drip.  He change our room.The next room wasn’t very clean.  The toilet wasn’t connected to the floor and wiggled and twisted around and was nasty around the base.  I have pics of the bathroom.The management has no controll over past Guests that have No Respect for a NON Smoking room.  there were places on the counter where  a Smoking Guest had placed thier cig at the edge of the counter top.  this was a personal slam to "Those People" not Motel 6.Sadly this Motel 6 didn’t not use E-address to get a survey from Corp.  I may attempt to contact corp anyhow.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r58675177-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>58675177</t>
+  </si>
+  <si>
+    <t>03/15/2010</t>
+  </si>
+  <si>
+    <t>Stay Away</t>
+  </si>
+  <si>
+    <t>From rude and surly desk clerk, to paper thin walls/floors/ceilings, to toilet leaking all night...how many ways can one say "craphole"?Were wakened throughout the night by tiolet running so loudly, even closing the door barely muffled it...and either the floors/ceilings are paper thin or they are boarding horses on the third floor. Again, how many ways are there to say "craphole"?Stay Away...........Howard Johnsons and Super 8 are nearby at about the same cost.</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r57518296-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>57518296</t>
+  </si>
+  <si>
+    <t>03/02/2010</t>
+  </si>
+  <si>
+    <t>Saved a few bucks....lost a lot of sleep</t>
+  </si>
+  <si>
+    <t>Staff was very friendly. Room was small but clean...could use some updating though. Problem was the paper thin walls and very rude neighbors. Hardly slept a wink. Only stay here if you are a sound sleeper or don't require much sleep. It's a shame because the price was very good. We were en route to another destination and just needed a clean, quiet place to sleep.</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r10549723-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>10549723</t>
+  </si>
+  <si>
+    <t>11/02/2007</t>
+  </si>
+  <si>
+    <t>Nice enough Motel 6</t>
+  </si>
+  <si>
+    <t>A 3-story Motel 6 in reasonably good condition with interior hallways. Elevator. Alas, the contractor scrimped of sheet rock so the walls between rooms are thin. Guests looking for silence on a busy night might well look elsewhere. Pleasant and helpful staff. Spartan but serviceable furnishings. Windows open and in-room air handling is easily adjustable if slightly noisy. Limited TV package. Low price.Located facing US 75 on one side and the high school football stadium ("Friday Night Lights") on the other. Only a block from Hwy 380. Lots of franchise eateries and shopping within walking distance in this over-grown commercial area. Fine for a stop-over or short-term stay.</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1194,1611 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>76</v>
+      </c>
+      <c r="X7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>123</v>
+      </c>
+      <c r="X11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>140</v>
+      </c>
+      <c r="X13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O15" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>159</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" t="s">
+        <v>171</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>172</v>
+      </c>
+      <c r="O18" t="s">
+        <v>85</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L19" t="s">
+        <v>178</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>179</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" t="s">
+        <v>182</v>
+      </c>
+      <c r="K20" t="s">
+        <v>183</v>
+      </c>
+      <c r="L20" t="s">
+        <v>184</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>185</v>
+      </c>
+      <c r="O20" t="s">
+        <v>93</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>188</v>
+      </c>
+      <c r="J21" t="s">
+        <v>189</v>
+      </c>
+      <c r="K21" t="s">
+        <v>190</v>
+      </c>
+      <c r="L21" t="s">
+        <v>191</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>192</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J22" t="s">
+        <v>195</v>
+      </c>
+      <c r="K22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L22" t="s">
+        <v>197</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>198</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>200</v>
+      </c>
+      <c r="J23" t="s">
+        <v>201</v>
+      </c>
+      <c r="K23" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" t="s">
+        <v>203</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>198</v>
+      </c>
+      <c r="O23" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>206</v>
+      </c>
+      <c r="J24" t="s">
+        <v>207</v>
+      </c>
+      <c r="K24" t="s">
+        <v>208</v>
+      </c>
+      <c r="L24" t="s">
+        <v>209</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>210</v>
+      </c>
+      <c r="O24" t="s">
+        <v>93</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>212</v>
+      </c>
+      <c r="J25" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25" t="s">
+        <v>214</v>
+      </c>
+      <c r="L25" t="s">
+        <v>215</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>216</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>217</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>218</v>
+      </c>
+      <c r="J26" t="s">
+        <v>219</v>
+      </c>
+      <c r="K26" t="s">
+        <v>220</v>
+      </c>
+      <c r="L26" t="s">
+        <v>221</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>221</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_592.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_592.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>KellyKG32</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>We stayed here August 22, 2017, we were traveling to Lackland, AFB.  We had 2 rooms for my family and my sister's family. The hallway smelled like marijuana. The rooms were disgusting, there was fecal matter on our bathtub. There were pubic hairs on our sheets. My sister's room had blood on the wall and ceiling of the bathroom, and a large blood stain on the bed, which was not even made up correctly.  When we went to speak to the manager about the condition of our rooms, he said that we did this to the rooms, even though we had only been checked in for about 15 minutes. In the morning my husband tried to speak to the manager and showed them pictures of the rooms and the blood stains, he said it was hair dye and that we did it. (none of us even have red hair). This hotel is unsanitary, and the people running it are rude. I will never stay again!More</t>
   </si>
   <si>
+    <t>okiloki</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r527947625-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>Stayed in this motel the Sunday before Labor Day because the grandkids were tired and cranky and I thought staying and getting up for breakfast would be nice before the rest of the trip home. Big mistake. Check in was easy and headed for our room. When the elevator door opened, on the second floor, we were overwhelmed by the odor of Indian food and marijuana. There were boxes of leftover food in boxes littered around the elevator door and in the hall to our room.  Once inside the room, I noticed the light didn't work in the bathroom but could see there were no towels or washcloths. I tried to call for towels but the phone was dead in the room, as were most of the other lights and the minifridge. I went downstairs and complained about the room but the clerk acted like she couldn't understand me, the same clerk that had checked me in. She did give me two towels for the four of us. The thin coverlets on the beds were unclean or stained and there was a public hair between the sheets so we slept on the top of the bed. I did call Motel 6, that same day, and reported this motel. I was surprised that, within a week, I received a check for the total amount I'd paid for the room. This could be a good, low priced establishment with a good cleaning...Stayed in this motel the Sunday before Labor Day because the grandkids were tired and cranky and I thought staying and getting up for breakfast would be nice before the rest of the trip home. Big mistake. Check in was easy and headed for our room. When the elevator door opened, on the second floor, we were overwhelmed by the odor of Indian food and marijuana. There were boxes of leftover food in boxes littered around the elevator door and in the hall to our room.  Once inside the room, I noticed the light didn't work in the bathroom but could see there were no towels or washcloths. I tried to call for towels but the phone was dead in the room, as were most of the other lights and the minifridge. I went downstairs and complained about the room but the clerk acted like she couldn't understand me, the same clerk that had checked me in. She did give me two towels for the four of us. The thin coverlets on the beds were unclean or stained and there was a public hair between the sheets so we slept on the top of the bed. I did call Motel 6, that same day, and reported this motel. I was surprised that, within a week, I received a check for the total amount I'd paid for the room. This could be a good, low priced establishment with a good cleaning and maintenance but I would give it a few months before staying there because this was my worst hotel experience.More</t>
   </si>
   <si>
+    <t>Cordelia M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r521722375-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>lspar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r473039457-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -255,6 +267,9 @@
     <t>The desk clerk at this Motel 6 was very polite and helpful. The room was clean with a refrigerator. They do not offer a discount for AARP. Dominos will deliver pizza here. Motel 6 motels are minimal hotels that accept pets. One should not expect more. More</t>
   </si>
   <si>
+    <t>widenerwd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r384897738-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -279,6 +294,9 @@
     <t>I stayed at this motel, room 105, on June 8th 2016. Shortly after checking in, my toilet flooded the bathroom and some of the carpet. I grabbed the gentleman at the front desk and he started working on it. It broke.  Completely inoperable. I requested a different room and was denied. I requested a refund to take my child to another hotel and was denied. He did not have authority but said to go to the front desk the following morning to talk to the owner. She refused to give me a refund. When I asked for her name, she refused to give me her last name (apparently it’s their policy) but she did give me one thing: an attitude. Worst experience ever.More</t>
   </si>
   <si>
+    <t>tryrakesh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r357925990-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -303,6 +321,9 @@
     <t>A very friendly welcome on arrival, Although the room was a little small it was well furnished and very clean and WIFI at no extra cost. There was also the added bonus of a coffee machine and kettle for tea in the reception area. Great desk staff who remember you when you come and go. Useful supermarket a few doors away and lots of good places to eat nearby.More</t>
   </si>
   <si>
+    <t>jfstephenson618</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r328158464-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -324,6 +345,9 @@
     <t>This place is horrible. The beds are very uncomfortable. The non-smoking rooms still smell like they've been smoked in. They have basically no amenities. You have to bring everything you might possibly need for your trip. No iron or ironing board in the room. No hair dryer. No rollaway beds for your children. You do get two free bars of soap, but if you want shampoo, you have to pay $2 in the vending machine to get a travel sized shampoo. Our first night here, a woman who was hopped up on drugs ran down our hallway screaming at the top of her lungs. The hotel staff couldn't care less about the patrons. They require that you pay for your room when you arrive rather than charging you at check-out and tout that as an "industry standard." I'm sorry, do I look like this is the first hotel I've ever stayed in? I'm quite sure that if there is an "industry standard" in accepting payment, it's that they charge you at check-out. That is one of the reasons they have such poor customer service. They already have their money, why do they care if you have needs. I will NEVER stay at this or ANY Motel 6 again! If you are in the area, stay ANYWHERE BUT HERE. I promise, you'll thank me later!More</t>
   </si>
   <si>
+    <t>Mvann</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r321240856-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -345,6 +369,9 @@
     <t>I have stayed here before but this time it's different. I checked in go to my room and turn on tv it has nothing on the screen. I pick up the phone to call front desk. The receiver has no cord attached I hook it up then phone still doesn't work. I walk down 3 floors to front desk to tell them. They change rooms as soon as I turn on tv there is a line running down the middle of the picture.  I go back to desk and get told they are going to be sold out tonight and can't help me. I said can you send maintenance to look at it they said yes I left for 2 hours come back nothing was done. I tell the new front desk clerk about it he looks at me like I'm stupid and says the tv is just fine except for the line. I said the line is not what I paid for and if the tv is not working properly and they can't switch rooms then they should give a discount he said you already got one. I would definetly check my room before paying here. This would of not been so upsetting if it wasn't for the attitude of the staff instead of being apologetic they just blow people off.More</t>
   </si>
   <si>
+    <t>Doris Q</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r290349229-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -369,6 +396,9 @@
     <t>The entire building smelled like cigarette smoke. We walked into the "modern" room and it smelled bad. The toilet had cigarette burns on the toilet and the walls of the bathroom looked like it had dried snot all over the walls. The building is old, the only thing updated was the room and even the bed spread had stains on it. This hotel is not up to motel 6 standards. More</t>
   </si>
   <si>
+    <t>lmc546</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r239109774-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -396,6 +426,9 @@
     <t>DO NOT STAY HERE!!!The pictures will fool you. When we arrived, I had a bad feeling. as we arrived in the room the blankets were disgusting and covered in stains. The toilet, sink &amp; bath tub were clean but the floors were disgusting. The towels were not even white. The fake wood flooring was so gross and filthy. We marched right back downstairs and told them to refund our money and they did and we left to another hotel. the walls are so thin you can hear inappropriate noises. AGAIN DO NOT STAY HERE, IT IS DISGUSTING!!!!!More</t>
   </si>
   <si>
+    <t>Peidaycsp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r237746025-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -420,6 +453,9 @@
     <t>The outside and common areas were nice and clean. The price was right but the room was disgusting. After a long drive I stopped for a short night of sleep. Seemed nice as I arrived and checked in. When I entered the room the faux wood floors were peeled up and separate all over the room. I thought just unsightly but later I thought what germs were looming in those cracks. Then I looked at the bedspread and it was in horrible condition. Stains all over and holes and snags. I looked it over and decided just stains and it was clean but disgusting.  I took it off the bed and the sheets appeared clean. I was too tired to hunt down another hotel. Things seemed better until I took a towl out to dry off with and it was stained horribly. Definitely an issue with the clothes washing person or equipment. The room was acceptably clean otherwise. Definitely wouldn't stay there again.More</t>
   </si>
   <si>
+    <t>jerry b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r232091436-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -447,6 +483,9 @@
     <t>Terrible!The bed was full of stains, etc and hair between the sheets. No toilet paper at all. The manager on duty was helpful, but there was no way that I was going to stay there.I got my money back and went to super 8.More</t>
   </si>
   <si>
+    <t>Lisa_tompkins1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r193116629-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -462,6 +501,9 @@
     <t xml:space="preserve">I stay here 2 nights a week every week for my job. Room is always clean and staff is efficient and friendly. Very convenient to interstate, restaurants. Great value for a good night's rest. As a solo female traveler I always feel safe when staying here. It feels like my 2nd home as much as I stay here. </t>
   </si>
   <si>
+    <t>rgoodwin41</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r190731234-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -480,6 +522,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>kareyb_13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r186385271-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -501,6 +546,9 @@
     <t>Ok, I'll give them the fact that the price was reasonable, BUT that does not mean they have the right to be rude!!! Upon check in, I was asked three times if I was the only guest and three times how I was going to pay. I reserved the room with a card online for one person.....so what were the questions for? On top of that, I had decided that I was going to leave a day earlier and I would not need the room the whole weekend. They acted like I killed their dog!!! Then one of them went outside to look at the car I was driving to see who was in there.....REALLY!?!?  The tub backed up, it was like taking a bath standing up! Upon getting sick (unrelated) I decided to check out early and found that they had already charged my card! Usually you are charged AFTER you check out. I will NEVER stay there againMore</t>
   </si>
   <si>
+    <t>louisianatraveler14</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r169727457-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -519,6 +567,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Mack M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r165368099-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -540,6 +591,9 @@
     <t>The lady at the counter was one of the rudest individuals on planet earth.  The reservations could not had been any more mishandle it a monkey had handled them. The next clerk we spoke to could not speak English.  If she was speaking English I could not understand her.   There is a sign in the lobby which reads no pets allowed.  However the same rude lady who was working the counter we checked in was walking her dog in and out of the lobby.  I guess the sign does not apply to her.  Saturday night the local authorities were called and made several arrest.  It seams that almost every one on the second floor felt the need to smoke marijuana. We were there June 21-23 2013  I checked in approx 2:30 PMMore</t>
   </si>
   <si>
+    <t>lbwiskey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r154848658-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -558,6 +612,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>melissa d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r133528075-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -579,6 +636,9 @@
     <t>the housekeepers steal! i have been a long time customer there i never had any complaints that was worth me writing a review until now.  i checked out and remembered not even 10 mins later i left something in the room i called and the lady was like yeah ok you can come back i told her i was at work but i would swing by on my lunch break and come get it.  I leave work a little early to go up there not even 3 hours after i checked out and THEY SAY ITS NOT THERE! bull! the housekeeper had the nerve to yell and get a attitude when asked about it why are you defensive if you didn't steal it? and then to make it even worse they owner had a attitude like it was my fault they hired rouge people to work for them....they have lost a customer!More</t>
   </si>
   <si>
+    <t>stockds</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r132453948-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -597,6 +657,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>candace b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r126777471-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -613,6 +676,9 @@
   </si>
   <si>
     <t>February 2012</t>
+  </si>
+  <si>
+    <t>knowwheretogo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r124175267-Motel_6_McKinney-McKinney_Texas.html</t>
@@ -645,6 +711,9 @@
 The management has no controll over past Guests that have No Respect for a NON Smoking room.  there were places on the counter...This is one of Motel 6’s  “Accor” properties and there a 3 floors of rooms, They do have an elevator.  We visited in Feb. 2012.  The outside of the property wasn’t very clean but we considered that is was winter time and may not have been doing regular outside cleaning however the temp was in the 70’s.  Then there was the strong smell of “Curry”.  The Front Office / Common area was clean and decorated with Valentine theme.  We travel with 2 little dogs and Motel 6 is usually our option and this was no exception.WiFi was free here but I don’t know how well it worked, we were to tired for internet.Our bed was very comfortable and that unfortunately is not typical of most Motel 6’s but maybe that is slowly changing.We changed rooms because our first room the tub faucet dripped.  I noticed it immediately and called the front desk and a young man came up to check it out.  I told him I was not going to listen to the rest of the night with drip drip.  He change our room.The next room wasn’t very clean.  The toilet wasn’t connected to the floor and wiggled and twisted around and was nasty around the base.  I have pics of the bathroom.The management has no controll over past Guests that have No Respect for a NON Smoking room.  there were places on the counter where  a Smoking Guest had placed thier cig at the edge of the counter top.  this was a personal slam to "Those People" not Motel 6.Sadly this Motel 6 didn’t not use E-address to get a survey from Corp.  I may attempt to contact corp anyhow.More</t>
   </si>
   <si>
+    <t>councilman05</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r58675177-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -663,6 +732,9 @@
     <t>March 2010</t>
   </si>
   <si>
+    <t>midwestmomtv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r57518296-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -679,6 +751,9 @@
   </si>
   <si>
     <t>February 2010</t>
+  </si>
+  <si>
+    <t>anemonefish</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r10549723-Motel_6_McKinney-McKinney_Texas.html</t>
@@ -1198,43 +1273,47 @@
       <c r="A2" t="n">
         <v>44297</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169485</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1248,50 +1327,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>44297</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169486</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -1307,56 +1390,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>44297</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169487</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="n">
         <v>2</v>
@@ -1376,50 +1463,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>44297</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>169488</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1431,56 +1522,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>44297</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169489</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -1496,56 +1591,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>44297</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>169490</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1563,56 +1662,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>44297</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>169491</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1632,50 +1735,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>44297</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>169492</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -1695,41 +1802,45 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>44297</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>52638</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -1746,56 +1857,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="X10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>44297</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>169493</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1811,47 +1926,51 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="X11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>44297</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>169494</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
@@ -1878,56 +1997,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="X12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>44297</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>169495</v>
+      </c>
+      <c r="C13" t="s">
+        <v>145</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="O13" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1939,47 +2062,51 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="X13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>44297</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>169496</v>
+      </c>
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="K14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
@@ -2008,50 +2135,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>44297</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>169497</v>
+      </c>
+      <c r="C15" t="s">
+        <v>161</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="O15" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2065,50 +2196,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>44297</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>169498</v>
+      </c>
+      <c r="C16" t="s">
+        <v>168</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -2132,50 +2267,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>44297</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>102834</v>
+      </c>
+      <c r="C17" t="s">
+        <v>176</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="J17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="O17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2199,50 +2338,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>44297</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>169499</v>
+      </c>
+      <c r="C18" t="s">
+        <v>183</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="J18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="O18" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -2266,50 +2409,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>44297</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>169500</v>
+      </c>
+      <c r="C19" t="s">
+        <v>191</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="J19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="K19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2333,50 +2480,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>44297</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>169501</v>
+      </c>
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="J20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="K20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="O20" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -2400,50 +2551,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>44297</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>169502</v>
+      </c>
+      <c r="C21" t="s">
+        <v>206</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="J21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="K21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2467,50 +2622,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>44297</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>169503</v>
+      </c>
+      <c r="C22" t="s">
+        <v>213</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2534,50 +2693,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>44297</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>169504</v>
+      </c>
+      <c r="C23" t="s">
+        <v>220</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="J23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="K23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="O23" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -2599,50 +2762,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>44297</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>169505</v>
+      </c>
+      <c r="C24" t="s">
+        <v>227</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="J24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="K24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="O24" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
@@ -2666,50 +2833,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>44297</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>169506</v>
+      </c>
+      <c r="C25" t="s">
+        <v>234</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="J25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="K25" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -2733,41 +2904,45 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>44297</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>169507</v>
+      </c>
+      <c r="C26" t="s">
+        <v>241</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="J26" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="K26" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
@@ -2796,7 +2971,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_592.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_592.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="342">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,63 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>KellyKG32</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r573133793-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>56260</t>
+  </si>
+  <si>
+    <t>244378</t>
+  </si>
+  <si>
+    <t>573133793</t>
+  </si>
+  <si>
+    <t>04/13/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUEST SERVICES &amp; FILTHY ROOMS </t>
+  </si>
+  <si>
+    <t>Hair was in my bed along with blood and yellow stuff on my pillow .. they should be tossed if their not in good condition. Also GUEST SERVICES was horrible the male was rude and he didnt want to give me a king room he convinced me that their will be none for the day and turned around and gave my sister one.. which in now after talking to the manager he's still employed at the location..MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 McKinney, responded to this reviewResponded April 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2018</t>
+  </si>
+  <si>
+    <t>Hair was in my bed along with blood and yellow stuff on my pillow .. they should be tossed if their not in good condition. Also GUEST SERVICES was horrible the male was rude and he didnt want to give me a king room he convinced me that their will be none for the day and turned around and gave my sister one.. which in now after talking to the manager he's still employed at the location..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r561582713-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>561582713</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t>Hi how r u</t>
+  </si>
+  <si>
+    <t>Hi How r u. I am stay in motel6 McKinney TX I Like stay in indoor room motel house keeper staff is very nice.. and front desk young guys is very friendly and helpful.. I ask his name. His name is Rick I will come next time stay with my Family..Thank for nice service Thank you so much</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r529206256-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
-    <t>56260</t>
-  </si>
-  <si>
-    <t>244378</t>
-  </si>
-  <si>
     <t>529206256</t>
   </si>
   <si>
@@ -183,9 +225,6 @@
     <t>We stayed here August 22, 2017, we were traveling to Lackland, AFB.  We had 2 rooms for my family and my sister's family. The hallway smelled like marijuana. The rooms were disgusting, there was fecal matter on our bathtub. There were pubic hairs on our sheets. My sister's room had blood on the wall and ceiling of the bathroom, and a large blood stain on the bed, which was not even made up correctly.  When we went to speak to the manager about the condition of our rooms, he said that we did this to the rooms, even though we had only been checked in for about 15 minutes. In the morning my husband tried to speak to the manager and showed them pictures of the rooms and the blood stains, he said it was hair dye and that we did it. (none of us even have red hair). This hotel is unsanitary, and the people running it are rude. I will never stay again!More</t>
   </si>
   <si>
-    <t>okiloki</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r527947625-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -213,9 +252,6 @@
     <t>Stayed in this motel the Sunday before Labor Day because the grandkids were tired and cranky and I thought staying and getting up for breakfast would be nice before the rest of the trip home. Big mistake. Check in was easy and headed for our room. When the elevator door opened, on the second floor, we were overwhelmed by the odor of Indian food and marijuana. There were boxes of leftover food in boxes littered around the elevator door and in the hall to our room.  Once inside the room, I noticed the light didn't work in the bathroom but could see there were no towels or washcloths. I tried to call for towels but the phone was dead in the room, as were most of the other lights and the minifridge. I went downstairs and complained about the room but the clerk acted like she couldn't understand me, the same clerk that had checked me in. She did give me two towels for the four of us. The thin coverlets on the beds were unclean or stained and there was a public hair between the sheets so we slept on the top of the bed. I did call Motel 6, that same day, and reported this motel. I was surprised that, within a week, I received a check for the total amount I'd paid for the room. This could be a good, low priced establishment with a good cleaning...Stayed in this motel the Sunday before Labor Day because the grandkids were tired and cranky and I thought staying and getting up for breakfast would be nice before the rest of the trip home. Big mistake. Check in was easy and headed for our room. When the elevator door opened, on the second floor, we were overwhelmed by the odor of Indian food and marijuana. There were boxes of leftover food in boxes littered around the elevator door and in the hall to our room.  Once inside the room, I noticed the light didn't work in the bathroom but could see there were no towels or washcloths. I tried to call for towels but the phone was dead in the room, as were most of the other lights and the minifridge. I went downstairs and complained about the room but the clerk acted like she couldn't understand me, the same clerk that had checked me in. She did give me two towels for the four of us. The thin coverlets on the beds were unclean or stained and there was a public hair between the sheets so we slept on the top of the bed. I did call Motel 6, that same day, and reported this motel. I was surprised that, within a week, I received a check for the total amount I'd paid for the room. This could be a good, low priced establishment with a good cleaning and maintenance but I would give it a few months before staying there because this was my worst hotel experience.More</t>
   </si>
   <si>
-    <t>Cordelia M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r521722375-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -234,7 +270,58 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>lspar</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r491369209-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>491369209</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>A little noisy and uncomfortable beds</t>
+  </si>
+  <si>
+    <t>We were on the first floor and were woke up several times by people talking and doors slamming. The beds are awful! It served the purpose but not a great experience. The rooms are also very very small. Had a fridge but no microwave. The washing machine did not agitate either. Had to wash the clothes twice and do the agitating myself!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 McKinney, responded to this reviewResponded June 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2017</t>
+  </si>
+  <si>
+    <t>We were on the first floor and were woke up several times by people talking and doors slamming. The beds are awful! It served the purpose but not a great experience. The rooms are also very very small. Had a fridge but no microwave. The washing machine did not agitate either. Had to wash the clothes twice and do the agitating myself!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r491088627-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>491088627</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>Minimal Accomodations; Cheap; Run Down</t>
+  </si>
+  <si>
+    <t>This must be an older property, as the establishment is old and run down. It's rare that I have second thoughts about staying somewhere, but I definately did here. Room sparce. Comforter stained and looks dirty. Bathroom toilet is broken in several places. A/C worked. Parking limited. Within just a few blocks of dining and shopping venues. Super cheap. You get what you pay for.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team  at Motel 6 McKinney, responded to this reviewResponded June 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2017</t>
+  </si>
+  <si>
+    <t>This must be an older property, as the establishment is old and run down. It's rare that I have second thoughts about staying somewhere, but I definately did here. Room sparce. Comforter stained and looks dirty. Bathroom toilet is broken in several places. A/C worked. Parking limited. Within just a few blocks of dining and shopping venues. Super cheap. You get what you pay for.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r473039457-Motel_6_McKinney-McKinney_Texas.html</t>
@@ -261,15 +348,9 @@
     <t>6Team, Brand Experience Team at Motel 6 McKinney, responded to this reviewResponded June 7, 2017</t>
   </si>
   <si>
-    <t>Responded June 7, 2017</t>
-  </si>
-  <si>
     <t>The desk clerk at this Motel 6 was very polite and helpful. The room was clean with a refrigerator. They do not offer a discount for AARP. Dominos will deliver pizza here. Motel 6 motels are minimal hotels that accept pets. One should not expect more. More</t>
   </si>
   <si>
-    <t>widenerwd</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r384897738-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -288,15 +369,9 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>I stayed at this motel, room 105, on June 8th 2016. Shortly after checking in, my toilet flooded the bathroom and some of the carpet. I grabbed the gentleman at the front desk and he started working on it. It broke.  Completely inoperable. I requested a different room and was denied. I requested a refund to take my child to another hotel and was denied. He did not have authority but said to go to the front desk the following morning to talk to the owner. She refused to give me a refund. When I asked for her name, she refused to give me her last name (apparently it’s their policy) but she did give me one thing: an attitude. Worst experience ever.More</t>
   </si>
   <si>
-    <t>tryrakesh</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r357925990-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -315,13 +390,61 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>A very friendly welcome on arrival, Although the room was a little small it was well furnished and very clean and WIFI at no extra cost. There was also the added bonus of a coffee machine and kettle for tea in the reception area. Great desk staff who remember you when you come and go. Useful supermarket a few doors away and lots of good places to eat nearby.More</t>
   </si>
   <si>
-    <t>jfstephenson618</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r352951313-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>352951313</t>
+  </si>
+  <si>
+    <t>03/04/2016</t>
+  </si>
+  <si>
+    <t>Stay away unless you like the police present</t>
+  </si>
+  <si>
+    <t>Walked up to the hotel to check in, 4 police cars out front.  Checked in and asked the lady at the desk if the police presence was normal and she said "never".  Got to a non smoking room and it smelled like smoke.  Room very basic, but reasonably clean.   1:30 am next door neighbors fighting in the hall and by 8 am they were make love.  Stupid woman lets herself get abused then at 8am.....Came back the next night and 2 police cars out front. Talked to one of the officers and he said they come here a bunch.  Told the desk clerk if there is noise in the hall again tonight I will call the police.  Free coffee in the morning, wow.  Get what you pay for.  Not much.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 McKinney, responded to this reviewResponded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Walked up to the hotel to check in, 4 police cars out front.  Checked in and asked the lady at the desk if the police presence was normal and she said "never".  Got to a non smoking room and it smelled like smoke.  Room very basic, but reasonably clean.   1:30 am next door neighbors fighting in the hall and by 8 am they were make love.  Stupid woman lets herself get abused then at 8am.....Came back the next night and 2 police cars out front. Talked to one of the officers and he said they come here a bunch.  Told the desk clerk if there is noise in the hall again tonight I will call the police.  Free coffee in the morning, wow.  Get what you pay for.  Not much.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r342245220-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>342245220</t>
+  </si>
+  <si>
+    <t>01/23/2016</t>
+  </si>
+  <si>
+    <t>Save your Money and Stay Away from this Place!</t>
+  </si>
+  <si>
+    <t>I've accidentally found myself in some terrible hotels before but this place beats them all! Here's why: I checked into this hotel and found this place as dirty as ever! As if that was not enough, the heater in the room did not work! The attendants made no effort to offer quality service and suggested I have to go look for another hotel so I was kicked out of the hotel around 10:20pm to go and find another hotel.Shame on Motel 6 Worldwide for keeping this branch in your chain, and thanks for running my stay here in Dallas!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 McKinney, responded to this reviewResponded January 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2016</t>
+  </si>
+  <si>
+    <t>I've accidentally found myself in some terrible hotels before but this place beats them all! Here's why: I checked into this hotel and found this place as dirty as ever! As if that was not enough, the heater in the room did not work! The attendants made no effort to offer quality service and suggested I have to go look for another hotel so I was kicked out of the hotel around 10:20pm to go and find another hotel.Shame on Motel 6 Worldwide for keeping this branch in your chain, and thanks for running my stay here in Dallas!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r328158464-Motel_6_McKinney-McKinney_Texas.html</t>
@@ -345,9 +468,6 @@
     <t>This place is horrible. The beds are very uncomfortable. The non-smoking rooms still smell like they've been smoked in. They have basically no amenities. You have to bring everything you might possibly need for your trip. No iron or ironing board in the room. No hair dryer. No rollaway beds for your children. You do get two free bars of soap, but if you want shampoo, you have to pay $2 in the vending machine to get a travel sized shampoo. Our first night here, a woman who was hopped up on drugs ran down our hallway screaming at the top of her lungs. The hotel staff couldn't care less about the patrons. They require that you pay for your room when you arrive rather than charging you at check-out and tout that as an "industry standard." I'm sorry, do I look like this is the first hotel I've ever stayed in? I'm quite sure that if there is an "industry standard" in accepting payment, it's that they charge you at check-out. That is one of the reasons they have such poor customer service. They already have their money, why do they care if you have needs. I will NEVER stay at this or ANY Motel 6 again! If you are in the area, stay ANYWHERE BUT HERE. I promise, you'll thank me later!More</t>
   </si>
   <si>
-    <t>Mvann</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r321240856-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -369,9 +489,6 @@
     <t>I have stayed here before but this time it's different. I checked in go to my room and turn on tv it has nothing on the screen. I pick up the phone to call front desk. The receiver has no cord attached I hook it up then phone still doesn't work. I walk down 3 floors to front desk to tell them. They change rooms as soon as I turn on tv there is a line running down the middle of the picture.  I go back to desk and get told they are going to be sold out tonight and can't help me. I said can you send maintenance to look at it they said yes I left for 2 hours come back nothing was done. I tell the new front desk clerk about it he looks at me like I'm stupid and says the tv is just fine except for the line. I said the line is not what I paid for and if the tv is not working properly and they can't switch rooms then they should give a discount he said you already got one. I would definetly check my room before paying here. This would of not been so upsetting if it wasn't for the attitude of the staff instead of being apologetic they just blow people off.More</t>
   </si>
   <si>
-    <t>Doris Q</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r290349229-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -396,7 +513,43 @@
     <t>The entire building smelled like cigarette smoke. We walked into the "modern" room and it smelled bad. The toilet had cigarette burns on the toilet and the walls of the bathroom looked like it had dried snot all over the walls. The building is old, the only thing updated was the room and even the bed spread had stains on it. This hotel is not up to motel 6 standards. More</t>
   </si>
   <si>
-    <t>lmc546</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r245029967-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>245029967</t>
+  </si>
+  <si>
+    <t>12/18/2014</t>
+  </si>
+  <si>
+    <t>Good value-Pet friendly</t>
+  </si>
+  <si>
+    <t>This is a nice little hotel for the price.  Good location-easy to get to.  The desk clerk was very helpful in giving info about the city (things to do, places to go-how to get there etc.) FYI- there aren't any microwaves, coffee pots, hairdryers or irons in the rooms and not all rooms have fridges-I got mine after I requested it.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r242561212-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>242561212</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Stay AWAY From Here!!!!!</t>
+  </si>
+  <si>
+    <t>You can clearly see the bed is covered in stains.  We called down to the desk to ask for clean sheets and was told there weren't any and we were given a different room which was not any better.  People knocked on the door at all hours to ask if we had laundry detergent and such items. Vending machine has condoms and lighters sold next to food.  I find this to be disgusting, horrible place.  The manager (Desai Bhiku) at this McKinney location was very combative and says I am the only person that has ever called to complain.  Look at the other reviews.... does it look like I am the only one!  MOTEL 6 you need to do something about this!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>You can clearly see the bed is covered in stains.  We called down to the desk to ask for clean sheets and was told there weren't any and we were given a different room which was not any better.  People knocked on the door at all hours to ask if we had laundry detergent and such items. Vending machine has condoms and lighters sold next to food.  I find this to be disgusting, horrible place.  The manager (Desai Bhiku) at this McKinney location was very combative and says I am the only person that has ever called to complain.  Look at the other reviews.... does it look like I am the only one!  MOTEL 6 you need to do something about this!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r239109774-Motel_6_McKinney-McKinney_Texas.html</t>
@@ -414,9 +567,6 @@
     <t>DO NOT STAY HERE!!!The pictures will fool you. When we arrived, I had a bad feeling. as we arrived in the room the blankets were disgusting and covered in stains. The toilet, sink &amp; bath tub were clean but the floors were disgusting. The towels were not even white. The fake wood flooring was so gross and filthy. We marched right back downstairs and told them to refund our money and they did and we left to another hotel. the walls are so thin you can hear inappropriate noises. AGAIN DO NOT STAY HERE, IT IS DISGUSTING!!!!!MoreShow less</t>
   </si>
   <si>
-    <t>November 2014</t>
-  </si>
-  <si>
     <t>6Team, Brand Experience Team member at Motel 6 McKinney, responded to this reviewResponded December 5, 2014</t>
   </si>
   <si>
@@ -426,9 +576,6 @@
     <t>DO NOT STAY HERE!!!The pictures will fool you. When we arrived, I had a bad feeling. as we arrived in the room the blankets were disgusting and covered in stains. The toilet, sink &amp; bath tub were clean but the floors were disgusting. The towels were not even white. The fake wood flooring was so gross and filthy. We marched right back downstairs and told them to refund our money and they did and we left to another hotel. the walls are so thin you can hear inappropriate noises. AGAIN DO NOT STAY HERE, IT IS DISGUSTING!!!!!More</t>
   </si>
   <si>
-    <t>Peidaycsp</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r237746025-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -453,9 +600,6 @@
     <t>The outside and common areas were nice and clean. The price was right but the room was disgusting. After a long drive I stopped for a short night of sleep. Seemed nice as I arrived and checked in. When I entered the room the faux wood floors were peeled up and separate all over the room. I thought just unsightly but later I thought what germs were looming in those cracks. Then I looked at the bedspread and it was in horrible condition. Stains all over and holes and snags. I looked it over and decided just stains and it was clean but disgusting.  I took it off the bed and the sheets appeared clean. I was too tired to hunt down another hotel. Things seemed better until I took a towl out to dry off with and it was stained horribly. Definitely an issue with the clothes washing person or equipment. The room was acceptably clean otherwise. Definitely wouldn't stay there again.More</t>
   </si>
   <si>
-    <t>jerry b</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r232091436-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -483,7 +627,40 @@
     <t>Terrible!The bed was full of stains, etc and hair between the sheets. No toilet paper at all. The manager on duty was helpful, but there was no way that I was going to stay there.I got my money back and went to super 8.More</t>
   </si>
   <si>
-    <t>Lisa_tompkins1</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r217428600-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>217428600</t>
+  </si>
+  <si>
+    <t>07/25/2014</t>
+  </si>
+  <si>
+    <t>Good price and great rooms</t>
+  </si>
+  <si>
+    <t>We stopped there while in McKinney for work.  There isn't much for restaurants around there within walking distance but the rooms weren't bad.  They were small but did the trick.  They were updated recently and the bed was comfortable.  The shower was less favorable because the shower curtain was right next to you in the shower.  The shower was large and if I wanted to sit in the corner tub it would've been fine but I don't!  Overall it was a clean room and did the trick for the night.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r212927073-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>212927073</t>
+  </si>
+  <si>
+    <t>06/30/2014</t>
+  </si>
+  <si>
+    <t>Surprisingly good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep hearing how awful Motel 6 rooms are but every time I stay at one it's a pleasant surprise - taking the cost into account of course. This is as good as any and has the added bonus of quiet a/c so no need to switch off at night. Clean, quiet and good TV channel choice. </t>
+  </si>
+  <si>
+    <t>June 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r193116629-Motel_6_McKinney-McKinney_Texas.html</t>
@@ -501,9 +678,6 @@
     <t xml:space="preserve">I stay here 2 nights a week every week for my job. Room is always clean and staff is efficient and friendly. Very convenient to interstate, restaurants. Great value for a good night's rest. As a solo female traveler I always feel safe when staying here. It feels like my 2nd home as much as I stay here. </t>
   </si>
   <si>
-    <t>rgoodwin41</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r190731234-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -522,9 +696,6 @@
     <t>December 2013</t>
   </si>
   <si>
-    <t>kareyb_13</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r186385271-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -546,7 +717,40 @@
     <t>Ok, I'll give them the fact that the price was reasonable, BUT that does not mean they have the right to be rude!!! Upon check in, I was asked three times if I was the only guest and three times how I was going to pay. I reserved the room with a card online for one person.....so what were the questions for? On top of that, I had decided that I was going to leave a day earlier and I would not need the room the whole weekend. They acted like I killed their dog!!! Then one of them went outside to look at the car I was driving to see who was in there.....REALLY!?!?  The tub backed up, it was like taking a bath standing up! Upon getting sick (unrelated) I decided to check out early and found that they had already charged my card! Usually you are charged AFTER you check out. I will NEVER stay there againMore</t>
   </si>
   <si>
-    <t>louisianatraveler14</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r176763988-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>176763988</t>
+  </si>
+  <si>
+    <t>09/11/2013</t>
+  </si>
+  <si>
+    <t>watch out for this hotel!</t>
+  </si>
+  <si>
+    <t>Yeah, okay ill give em a point for the cost of staying at their motel but that's all I can say...everything else and I do mean everything else,mangement OMG!!! a freaking nightmare this guy and his wife will actually tell you that if you do not respect them before you even say anything that they will take you to their front lawn in front of god and everybody and stomp youre brains in... those are EXACT words from the wifes mouth!!!then her husband backed it up with YEAH SHE DOES THE TALKING I DO THE WALKING!!! I mean wow, shocked the crap outta me...and besides that the lady that checked us in I guess she didn't know we was standing in the lobby when she was making a call to her drug dealer! she told him to come up there she had his FREE room ready and that she wanted 100.00 dollars worth of ICECREAM? I can pretty much guess what that meant...so later that night maybe about two hours later me and my girl was leaving out to get something to eat and I swear by the time I made it to the elevators,which by the way was broke I got a contact high from the weed smoke that was being smoked it was some crazy mad smelling stuff it was so freaking strong!!! so anyway when we got down stairs I kinda hinted at the check in clerk...Yeah, okay ill give em a point for the cost of staying at their motel but that's all I can say...everything else and I do mean everything else,mangement OMG!!! a freaking nightmare this guy and his wife will actually tell you that if you do not respect them before you even say anything that they will take you to their front lawn in front of god and everybody and stomp youre brains in... those are EXACT words from the wifes mouth!!!then her husband backed it up with YEAH SHE DOES THE TALKING I DO THE WALKING!!! I mean wow, shocked the crap outta me...and besides that the lady that checked us in I guess she didn't know we was standing in the lobby when she was making a call to her drug dealer! she told him to come up there she had his FREE room ready and that she wanted 100.00 dollars worth of ICECREAM? I can pretty much guess what that meant...so later that night maybe about two hours later me and my girl was leaving out to get something to eat and I swear by the time I made it to the elevators,which by the way was broke I got a contact high from the weed smoke that was being smoked it was some crazy mad smelling stuff it was so freaking strong!!! so anyway when we got down stairs I kinda hinted at the check in clerk that the smell on 3rd floor was enough to put you in a coma for a year and she just laughed and said that the day manager lived on the 3rd floor and that all she does is smoke that stuff all day and night and that it was okay??? wow, and to top it all off isn't motel 6 spose to leave the light on for me? well no lights...hell there wasn't even a light bulb anywhere in my room when I first entered it. LMFAO!!! and it really sucks that they have no continental breakfast too.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Yeah, okay ill give em a point for the cost of staying at their motel but that's all I can say...everything else and I do mean everything else,mangement OMG!!! a freaking nightmare this guy and his wife will actually tell you that if you do not respect them before you even say anything that they will take you to their front lawn in front of god and everybody and stomp youre brains in... those are EXACT words from the wifes mouth!!!then her husband backed it up with YEAH SHE DOES THE TALKING I DO THE WALKING!!! I mean wow, shocked the crap outta me...and besides that the lady that checked us in I guess she didn't know we was standing in the lobby when she was making a call to her drug dealer! she told him to come up there she had his FREE room ready and that she wanted 100.00 dollars worth of ICECREAM? I can pretty much guess what that meant...so later that night maybe about two hours later me and my girl was leaving out to get something to eat and I swear by the time I made it to the elevators,which by the way was broke I got a contact high from the weed smoke that was being smoked it was some crazy mad smelling stuff it was so freaking strong!!! so anyway when we got down stairs I kinda hinted at the check in clerk...Yeah, okay ill give em a point for the cost of staying at their motel but that's all I can say...everything else and I do mean everything else,mangement OMG!!! a freaking nightmare this guy and his wife will actually tell you that if you do not respect them before you even say anything that they will take you to their front lawn in front of god and everybody and stomp youre brains in... those are EXACT words from the wifes mouth!!!then her husband backed it up with YEAH SHE DOES THE TALKING I DO THE WALKING!!! I mean wow, shocked the crap outta me...and besides that the lady that checked us in I guess she didn't know we was standing in the lobby when she was making a call to her drug dealer! she told him to come up there she had his FREE room ready and that she wanted 100.00 dollars worth of ICECREAM? I can pretty much guess what that meant...so later that night maybe about two hours later me and my girl was leaving out to get something to eat and I swear by the time I made it to the elevators,which by the way was broke I got a contact high from the weed smoke that was being smoked it was some crazy mad smelling stuff it was so freaking strong!!! so anyway when we got down stairs I kinda hinted at the check in clerk that the smell on 3rd floor was enough to put you in a coma for a year and she just laughed and said that the day manager lived on the 3rd floor and that all she does is smoke that stuff all day and night and that it was okay??? wow, and to top it all off isn't motel 6 spose to leave the light on for me? well no lights...hell there wasn't even a light bulb anywhere in my room when I first entered it. LMFAO!!! and it really sucks that they have no continental breakfast too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r176184511-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>176184511</t>
+  </si>
+  <si>
+    <t>09/07/2013</t>
+  </si>
+  <si>
+    <t>Good stay !!!!</t>
+  </si>
+  <si>
+    <t>The staff was friendly, it was clean &amp; a great value.Its right close to interstate.The bathrooms and rooms are updated and clean.Also hard to find pet friendly hotel in area.compare to other hotels in area we found best place to stay for the price we paid.it's great and we recommend others.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r169727457-Motel_6_McKinney-McKinney_Texas.html</t>
@@ -567,9 +771,6 @@
     <t>July 2013</t>
   </si>
   <si>
-    <t>Mack M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r165368099-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -591,9 +792,6 @@
     <t>The lady at the counter was one of the rudest individuals on planet earth.  The reservations could not had been any more mishandle it a monkey had handled them. The next clerk we spoke to could not speak English.  If she was speaking English I could not understand her.   There is a sign in the lobby which reads no pets allowed.  However the same rude lady who was working the counter we checked in was walking her dog in and out of the lobby.  I guess the sign does not apply to her.  Saturday night the local authorities were called and made several arrest.  It seams that almost every one on the second floor felt the need to smoke marijuana. We were there June 21-23 2013  I checked in approx 2:30 PMMore</t>
   </si>
   <si>
-    <t>lbwiskey</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r154848658-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -612,7 +810,43 @@
     <t>March 2013</t>
   </si>
   <si>
-    <t>melissa d</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r153196152-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>153196152</t>
+  </si>
+  <si>
+    <t>02/26/2013</t>
+  </si>
+  <si>
+    <t>Good value but unsure if I'll return</t>
+  </si>
+  <si>
+    <t>Due to an incident in the lobby upon arrival, I didn't get the feeling this hotel was in the safest location.  Also many of the people we encountered while staying there were a bit questionable in appearance/mannerisms.  When we got to our room (which the clerk walked us up to... don't get that much), we found that our one bar of soap was opened and left dirty on the sink and a washcloth had been used and left on the counter.  Not sure how or why this was but left us unsure about the cleanliness of the rest of the room.  Although as far as appearance, everything else did appear clean and in working order (basic for sure, but that was expected).  The next day, housekeeping left us no washcloths so we made due with hand towels.  The tub was large but yet somehow uncomfortable due to its triangular shape.  The beds were not horrible but not the best either, although I slept fine so no real complaints there.  The hall smelt badly of cigarettes.  While I can't ignore those faults, considering what I paid for the room, I can overlook a lot.  It was a very good value and served my basic needs for two evenings.  I'm just unsure if I would stay here again, will def see what else is out there next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Due to an incident in the lobby upon arrival, I didn't get the feeling this hotel was in the safest location.  Also many of the people we encountered while staying there were a bit questionable in appearance/mannerisms.  When we got to our room (which the clerk walked us up to... don't get that much), we found that our one bar of soap was opened and left dirty on the sink and a washcloth had been used and left on the counter.  Not sure how or why this was but left us unsure about the cleanliness of the rest of the room.  Although as far as appearance, everything else did appear clean and in working order (basic for sure, but that was expected).  The next day, housekeeping left us no washcloths so we made due with hand towels.  The tub was large but yet somehow uncomfortable due to its triangular shape.  The beds were not horrible but not the best either, although I slept fine so no real complaints there.  The hall smelt badly of cigarettes.  While I can't ignore those faults, considering what I paid for the room, I can overlook a lot.  It was a very good value and served my basic needs for two evenings.  I'm just unsure if I would stay here again, will def see what else is out there next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r149392482-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>149392482</t>
+  </si>
+  <si>
+    <t>01/10/2013</t>
+  </si>
+  <si>
+    <t>Basic Hotel for a Decent Price</t>
+  </si>
+  <si>
+    <t>If you are looking for a cheap but clean place that allows dogs I would recommend this hotel.  There is a Waffle House next to it and a few bars.I'm not a big fan of the new Motel 6 modern style hotels because I prefer carpet over hard floors.I would stay here again while traveling.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r133528075-Motel_6_McKinney-McKinney_Texas.html</t>
@@ -636,9 +870,6 @@
     <t>the housekeepers steal! i have been a long time customer there i never had any complaints that was worth me writing a review until now.  i checked out and remembered not even 10 mins later i left something in the room i called and the lady was like yeah ok you can come back i told her i was at work but i would swing by on my lunch break and come get it.  I leave work a little early to go up there not even 3 hours after i checked out and THEY SAY ITS NOT THERE! bull! the housekeeper had the nerve to yell and get a attitude when asked about it why are you defensive if you didn't steal it? and then to make it even worse they owner had a attitude like it was my fault they hired rouge people to work for them....they have lost a customer!More</t>
   </si>
   <si>
-    <t>stockds</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r132453948-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -657,9 +888,6 @@
     <t>June 2012</t>
   </si>
   <si>
-    <t>candace b</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r126777471-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -678,7 +906,37 @@
     <t>February 2012</t>
   </si>
   <si>
-    <t>knowwheretogo</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r126566507-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>126566507</t>
+  </si>
+  <si>
+    <t>03/23/2012</t>
+  </si>
+  <si>
+    <t>Bed bugs!!!</t>
+  </si>
+  <si>
+    <t>I recently just stayed there and was there for almost a week, I had to leave today because of bed bugs and I couldn't take it anymore! The manager didn't believe me but yet I have the bites to prove it. He said because he couldnt find any and because the mattresses were new that I had to be making it up. The only person that was nice there was the older white lady, she was the only one who seemed concerned about my incident there. Oh and as soon as we threatened to call the news and report them, they jumped on refunding me only one night and he was going to call "pest controll" he saidMoreShow less</t>
+  </si>
+  <si>
+    <t>I recently just stayed there and was there for almost a week, I had to leave today because of bed bugs and I couldn't take it anymore! The manager didn't believe me but yet I have the bites to prove it. He said because he couldnt find any and because the mattresses were new that I had to be making it up. The only person that was nice there was the older white lady, she was the only one who seemed concerned about my incident there. Oh and as soon as we threatened to call the news and report them, they jumped on refunding me only one night and he was going to call "pest controll" he saidMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r125087022-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>125087022</t>
+  </si>
+  <si>
+    <t>02/23/2012</t>
+  </si>
+  <si>
+    <t>Low end Motel - Hard to find at night</t>
+  </si>
+  <si>
+    <t>This Motel 6 is a low end budget motel with very small rooms. There best room rate is just slightly less than the local Days Inn or Super 8 but much less quality.  Smelled of smoke in elevator and other public areas.  Internet WiFi available at no charge but it would time out every 2 or 3 minutes.  Not very fast internet speed when it was working.  Pet Friendly at no additional charge.  IT was quite difficult to locate this Motel 6 at night when comming from North Texas.  I recommend that if you stay here you get detailed driving instructions from the motel staff prior to arriving.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r124175267-Motel_6_McKinney-McKinney_Texas.html</t>
@@ -711,9 +969,6 @@
 The management has no controll over past Guests that have No Respect for a NON Smoking room.  there were places on the counter...This is one of Motel 6’s  “Accor” properties and there a 3 floors of rooms, They do have an elevator.  We visited in Feb. 2012.  The outside of the property wasn’t very clean but we considered that is was winter time and may not have been doing regular outside cleaning however the temp was in the 70’s.  Then there was the strong smell of “Curry”.  The Front Office / Common area was clean and decorated with Valentine theme.  We travel with 2 little dogs and Motel 6 is usually our option and this was no exception.WiFi was free here but I don’t know how well it worked, we were to tired for internet.Our bed was very comfortable and that unfortunately is not typical of most Motel 6’s but maybe that is slowly changing.We changed rooms because our first room the tub faucet dripped.  I noticed it immediately and called the front desk and a young man came up to check it out.  I told him I was not going to listen to the rest of the night with drip drip.  He change our room.The next room wasn’t very clean.  The toilet wasn’t connected to the floor and wiggled and twisted around and was nasty around the base.  I have pics of the bathroom.The management has no controll over past Guests that have No Respect for a NON Smoking room.  there were places on the counter where  a Smoking Guest had placed thier cig at the edge of the counter top.  this was a personal slam to "Those People" not Motel 6.Sadly this Motel 6 didn’t not use E-address to get a survey from Corp.  I may attempt to contact corp anyhow.More</t>
   </si>
   <si>
-    <t>councilman05</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r58675177-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -732,9 +987,6 @@
     <t>March 2010</t>
   </si>
   <si>
-    <t>midwestmomtv</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r57518296-Motel_6_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -753,7 +1005,40 @@
     <t>February 2010</t>
   </si>
   <si>
-    <t>anemonefish</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r31743260-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>31743260</t>
+  </si>
+  <si>
+    <t>06/06/2009</t>
+  </si>
+  <si>
+    <t>OUTSTANDING, BEST ONE ON TRIP, AND ALL BUT ONE WERE GOOD.</t>
+  </si>
+  <si>
+    <t>Three story property with interior hallways and elevators.  Ample handicap parking by front door.  luggage cart, vending room, morning coffee.  (We carry a coffee kit anyway so no matter).  Guest Laundry.  Accessible room, large roomy and comfortable.  Windows open and each room has individual heating and cooling.  "roomy roll in shower w/fold down seat and portable seat..  Room had refrigerator but no microwave....still ok w/me, didn't expect anything.  Staff, from desk to house keepers, outstanding.  If I have to be in the area again I would stay here rather than anywhere else.  (I automatically check for pests and found none).  This trip we stayed at 6 properties and this was the best of 5 good ones and all were better than our stay in Midwest City, OK!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>Three story property with interior hallways and elevators.  Ample handicap parking by front door.  luggage cart, vending room, morning coffee.  (We carry a coffee kit anyway so no matter).  Guest Laundry.  Accessible room, large roomy and comfortable.  Windows open and each room has individual heating and cooling.  "roomy roll in shower w/fold down seat and portable seat..  Room had refrigerator but no microwave....still ok w/me, didn't expect anything.  Staff, from desk to house keepers, outstanding.  If I have to be in the area again I would stay here rather than anywhere else.  (I automatically check for pests and found none).  This trip we stayed at 6 properties and this was the best of 5 good ones and all were better than our stay in Midwest City, OK!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r16955154-Motel_6_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>16955154</t>
+  </si>
+  <si>
+    <t>06/15/2008</t>
+  </si>
+  <si>
+    <t>Bed Bugs Reported in Room and they put us on no rent list!</t>
+  </si>
+  <si>
+    <t>Beware, we had bed bugs in this motel and they banned us for complaining about it.  Stay away.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d244378-r10549723-Motel_6_McKinney-McKinney_Texas.html</t>
@@ -1273,47 +1558,43 @@
       <c r="A2" t="n">
         <v>44297</v>
       </c>
-      <c r="B2" t="n">
-        <v>169485</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1324,36 +1605,36 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>44297</v>
       </c>
-      <c r="B3" t="n">
-        <v>169486</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
       </c>
       <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
         <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
       </c>
       <c r="I3" t="s">
         <v>57</v>
@@ -1368,220 +1649,196 @@
         <v>60</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>62</v>
-      </c>
-      <c r="X3" t="s">
-        <v>63</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>44297</v>
       </c>
-      <c r="B4" t="n">
-        <v>169487</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="O4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2</v>
-      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>44297</v>
       </c>
-      <c r="B5" t="n">
-        <v>169488</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>74</v>
       </c>
-      <c r="J5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>78</v>
-      </c>
       <c r="O5" t="s">
-        <v>79</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>44297</v>
       </c>
-      <c r="B6" t="n">
-        <v>169489</v>
-      </c>
-      <c r="C6" t="s">
-        <v>83</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
         <v>3</v>
       </c>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
@@ -1590,544 +1847,512 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>80</v>
-      </c>
-      <c r="X6" t="s">
-        <v>81</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>44297</v>
       </c>
-      <c r="B7" t="n">
-        <v>169490</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="X7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>44297</v>
       </c>
-      <c r="B8" t="n">
-        <v>169491</v>
-      </c>
-      <c r="C8" t="s">
-        <v>101</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X8" t="s">
+        <v>100</v>
+      </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>44297</v>
       </c>
-      <c r="B9" t="n">
-        <v>169492</v>
-      </c>
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
+        <v>100</v>
+      </c>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>44297</v>
       </c>
-      <c r="B10" t="n">
-        <v>52638</v>
-      </c>
-      <c r="C10" t="s">
-        <v>117</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
+      <c r="N10" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="X10" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="Y10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>44297</v>
       </c>
-      <c r="B11" t="n">
-        <v>169493</v>
-      </c>
-      <c r="C11" t="s">
-        <v>126</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>44297</v>
       </c>
-      <c r="B12" t="n">
-        <v>169494</v>
-      </c>
-      <c r="C12" t="s">
-        <v>136</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
         <v>2</v>
       </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="n">
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
         <v>2</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" t="n">
-        <v>3</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="Y12" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>44297</v>
       </c>
-      <c r="B13" t="n">
-        <v>169495</v>
-      </c>
-      <c r="C13" t="s">
-        <v>145</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="O13" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="X13" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="Y13" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>44297</v>
       </c>
-      <c r="B14" t="n">
-        <v>169496</v>
-      </c>
-      <c r="C14" t="s">
-        <v>155</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="J14" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="K14" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
       <c r="R14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2135,202 +2360,182 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>44297</v>
       </c>
-      <c r="B15" t="n">
-        <v>169497</v>
-      </c>
-      <c r="C15" t="s">
-        <v>161</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="J15" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="K15" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>155</v>
+      </c>
+      <c r="O15" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
         <v>5</v>
       </c>
-      <c r="N15" t="s">
-        <v>167</v>
-      </c>
-      <c r="O15" t="s">
-        <v>90</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>44297</v>
       </c>
-      <c r="B16" t="n">
-        <v>169498</v>
-      </c>
-      <c r="C16" t="s">
-        <v>168</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
-      <c r="N16" t="s">
-        <v>174</v>
-      </c>
-      <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1</v>
-      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>1</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>162</v>
+      </c>
+      <c r="X16" t="s">
+        <v>163</v>
+      </c>
       <c r="Y16" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>44297</v>
       </c>
-      <c r="B17" t="n">
-        <v>102834</v>
-      </c>
-      <c r="C17" t="s">
-        <v>176</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="J17" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
       </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2338,67 +2543,57 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>44297</v>
       </c>
-      <c r="B18" t="n">
-        <v>169499</v>
-      </c>
-      <c r="C18" t="s">
-        <v>183</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="O18" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
       </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>1</v>
@@ -2409,423 +2604,369 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>44297</v>
       </c>
-      <c r="B19" t="n">
-        <v>169500</v>
-      </c>
-      <c r="C19" t="s">
-        <v>191</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="K19" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>183</v>
+      </c>
+      <c r="X19" t="s">
+        <v>184</v>
+      </c>
       <c r="Y19" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>44297</v>
       </c>
-      <c r="B20" t="n">
-        <v>169501</v>
-      </c>
-      <c r="C20" t="s">
-        <v>198</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="J20" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="K20" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="L20" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
-      <c r="N20" t="s">
-        <v>204</v>
-      </c>
-      <c r="O20" t="s">
-        <v>99</v>
-      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
         <v>3</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>191</v>
+      </c>
+      <c r="X20" t="s">
+        <v>192</v>
+      </c>
       <c r="Y20" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>44297</v>
       </c>
-      <c r="B21" t="n">
-        <v>169502</v>
-      </c>
-      <c r="C21" t="s">
-        <v>206</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="J21" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="K21" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>200</v>
+      </c>
+      <c r="X21" t="s">
+        <v>201</v>
+      </c>
       <c r="Y21" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>44297</v>
       </c>
-      <c r="B22" t="n">
-        <v>169503</v>
-      </c>
-      <c r="C22" t="s">
-        <v>213</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="J22" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="K22" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>44297</v>
       </c>
-      <c r="B23" t="n">
-        <v>169504</v>
-      </c>
-      <c r="C23" t="s">
-        <v>220</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
       <c r="I23" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="J23" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="K23" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="O23" t="s">
-        <v>79</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2</v>
-      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>4</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>44297</v>
       </c>
-      <c r="B24" t="n">
-        <v>169505</v>
-      </c>
-      <c r="C24" t="s">
-        <v>227</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
         <v>46</v>
       </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
       <c r="I24" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="J24" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="K24" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="s">
-        <v>233</v>
-      </c>
-      <c r="O24" t="s">
-        <v>99</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
       <c r="P24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2833,137 +2974,123 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>44297</v>
       </c>
-      <c r="B25" t="n">
-        <v>169506</v>
-      </c>
-      <c r="C25" t="s">
-        <v>234</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
         <v>46</v>
       </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
       <c r="I25" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="J25" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="K25" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>3</v>
-      </c>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>4</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>44297</v>
       </c>
-      <c r="B26" t="n">
-        <v>169507</v>
-      </c>
-      <c r="C26" t="s">
-        <v>241</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
         <v>46</v>
       </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
       <c r="I26" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="J26" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="K26" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
-      </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>231</v>
+      </c>
+      <c r="O26" t="s">
+        <v>67</v>
+      </c>
       <c r="P26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
         <v>3</v>
       </c>
       <c r="S26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2971,7 +3098,1199 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>234</v>
+      </c>
+      <c r="J27" t="s">
+        <v>235</v>
+      </c>
+      <c r="K27" t="s">
+        <v>236</v>
+      </c>
+      <c r="L27" t="s">
+        <v>237</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>238</v>
+      </c>
+      <c r="O27" t="s">
+        <v>108</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>241</v>
+      </c>
+      <c r="J28" t="s">
+        <v>242</v>
+      </c>
+      <c r="K28" t="s">
+        <v>243</v>
+      </c>
+      <c r="L28" t="s">
+        <v>244</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>238</v>
+      </c>
+      <c r="O28" t="s">
+        <v>108</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>245</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
         <v>246</v>
+      </c>
+      <c r="J29" t="s">
+        <v>247</v>
+      </c>
+      <c r="K29" t="s">
+        <v>248</v>
+      </c>
+      <c r="L29" t="s">
+        <v>249</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>250</v>
+      </c>
+      <c r="O29" t="s">
+        <v>83</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>251</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>252</v>
+      </c>
+      <c r="J30" t="s">
+        <v>253</v>
+      </c>
+      <c r="K30" t="s">
+        <v>254</v>
+      </c>
+      <c r="L30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>256</v>
+      </c>
+      <c r="O30" t="s">
+        <v>98</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>258</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>259</v>
+      </c>
+      <c r="J31" t="s">
+        <v>260</v>
+      </c>
+      <c r="K31" t="s">
+        <v>261</v>
+      </c>
+      <c r="L31" t="s">
+        <v>262</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>263</v>
+      </c>
+      <c r="O31" t="s">
+        <v>67</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>264</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>265</v>
+      </c>
+      <c r="J32" t="s">
+        <v>266</v>
+      </c>
+      <c r="K32" t="s">
+        <v>267</v>
+      </c>
+      <c r="L32" t="s">
+        <v>268</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>269</v>
+      </c>
+      <c r="O32" t="s">
+        <v>67</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>271</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>272</v>
+      </c>
+      <c r="J33" t="s">
+        <v>273</v>
+      </c>
+      <c r="K33" t="s">
+        <v>274</v>
+      </c>
+      <c r="L33" t="s">
+        <v>275</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>276</v>
+      </c>
+      <c r="O33" t="s">
+        <v>67</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>277</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>278</v>
+      </c>
+      <c r="J34" t="s">
+        <v>279</v>
+      </c>
+      <c r="K34" t="s">
+        <v>280</v>
+      </c>
+      <c r="L34" t="s">
+        <v>281</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>282</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>285</v>
+      </c>
+      <c r="J35" t="s">
+        <v>286</v>
+      </c>
+      <c r="K35" t="s">
+        <v>287</v>
+      </c>
+      <c r="L35" t="s">
+        <v>288</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>289</v>
+      </c>
+      <c r="O35" t="s">
+        <v>67</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>290</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>291</v>
+      </c>
+      <c r="J36" t="s">
+        <v>292</v>
+      </c>
+      <c r="K36" t="s">
+        <v>293</v>
+      </c>
+      <c r="L36" t="s">
+        <v>294</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>295</v>
+      </c>
+      <c r="O36" t="s">
+        <v>67</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>296</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>297</v>
+      </c>
+      <c r="J37" t="s">
+        <v>298</v>
+      </c>
+      <c r="K37" t="s">
+        <v>299</v>
+      </c>
+      <c r="L37" t="s">
+        <v>300</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>302</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>303</v>
+      </c>
+      <c r="J38" t="s">
+        <v>304</v>
+      </c>
+      <c r="K38" t="s">
+        <v>305</v>
+      </c>
+      <c r="L38" t="s">
+        <v>306</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>295</v>
+      </c>
+      <c r="O38" t="s">
+        <v>67</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>307</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>308</v>
+      </c>
+      <c r="J39" t="s">
+        <v>309</v>
+      </c>
+      <c r="K39" t="s">
+        <v>310</v>
+      </c>
+      <c r="L39" t="s">
+        <v>311</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>295</v>
+      </c>
+      <c r="O39" t="s">
+        <v>108</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>313</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>314</v>
+      </c>
+      <c r="J40" t="s">
+        <v>315</v>
+      </c>
+      <c r="K40" t="s">
+        <v>316</v>
+      </c>
+      <c r="L40" t="s">
+        <v>317</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>318</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>319</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>320</v>
+      </c>
+      <c r="J41" t="s">
+        <v>321</v>
+      </c>
+      <c r="K41" t="s">
+        <v>322</v>
+      </c>
+      <c r="L41" t="s">
+        <v>323</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>324</v>
+      </c>
+      <c r="O41" t="s">
+        <v>67</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>325</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J42" t="s">
+        <v>327</v>
+      </c>
+      <c r="K42" t="s">
+        <v>328</v>
+      </c>
+      <c r="L42" t="s">
+        <v>329</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>330</v>
+      </c>
+      <c r="O42" t="s">
+        <v>108</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>332</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>333</v>
+      </c>
+      <c r="J43" t="s">
+        <v>334</v>
+      </c>
+      <c r="K43" t="s">
+        <v>335</v>
+      </c>
+      <c r="L43" t="s">
+        <v>336</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>337</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>338</v>
+      </c>
+      <c r="J44" t="s">
+        <v>339</v>
+      </c>
+      <c r="K44" t="s">
+        <v>340</v>
+      </c>
+      <c r="L44" t="s">
+        <v>341</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
